--- a/Open_Science_Survey_BN_cln.xlsx
+++ b/Open_Science_Survey_BN_cln.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="310">
   <si>
     <t>ID</t>
   </si>
@@ -761,9 +761,6 @@
     <t>Open Publishing (preprints, open access);Open Data;Open Software;Science Communication / Public Engagement;Open Education;Open Methods;Open Hardware;Preregistration;Open Peer review;Citizen Science;</t>
   </si>
   <si>
-    <t>Esther Plomp;Library;</t>
-  </si>
-  <si>
     <t>I do not perceive any barriers / not applicable;I do not want to lose competitive advantage ;I'm involved in industry collaborations ;</t>
   </si>
   <si>
@@ -899,9 +896,6 @@
     <t>Lack of incentives ;Lack of funding ;Lack of mandates (funders, institute) ;It is not the norm in my department/section ;Proprietary software ;I do not want to lose competitive advantage ;Copyright/Intellectual property concerns ;</t>
   </si>
   <si>
-    <t>I don't think we practice it;</t>
-  </si>
-  <si>
     <t>Preparing the data/code for reuse;Choosing a license for data/software/papers ;Reusing shared materials of others;</t>
   </si>
   <si>
@@ -960,6 +954,9 @@
   </si>
   <si>
     <t>Storing and long term preservation of data and results ;Choosing a license for data/software/papers ;Preparing the data/code for reuse;Publishing preprints / open access;Publishing the data/code underlying a publication;</t>
+  </si>
+  <si>
+    <t>Data Steward;Library;</t>
   </si>
 </sst>
 </file>
@@ -1440,16 +1437,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="29" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="219.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="185.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="125.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="180" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1627,7 +1649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1716,7 +1738,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1805,7 +1827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1894,7 +1916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1983,7 +2005,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2072,7 +2094,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2161,7 +2183,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2250,7 +2272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2339,7 +2361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2428,7 +2450,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2515,7 +2537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2588,7 +2610,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2677,7 +2699,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2764,7 +2786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2853,7 +2875,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2942,7 +2964,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3031,7 +3053,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3120,7 +3142,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3209,7 +3231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3298,7 +3320,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3387,7 +3409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3472,7 +3494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3561,7 +3583,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3650,7 +3672,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3739,7 +3761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3828,7 +3850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3917,7 +3939,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4006,7 +4028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4095,7 +4117,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4184,7 +4206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4273,7 +4295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4362,7 +4384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4451,7 +4473,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4540,7 +4562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4629,7 +4651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4718,7 +4740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4803,7 +4825,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4846,31 +4868,31 @@
         <v>243</v>
       </c>
       <c r="P39" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X39" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>130</v>
@@ -4886,7 +4908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4927,10 +4949,10 @@
         <v>31</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>158</v>
@@ -4957,13 +4979,13 @@
         <v>38</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>85</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA40" s="1" t="s">
         <v>42</v>
@@ -4975,7 +4997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5016,13 +5038,13 @@
         <v>32</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>36</v>
@@ -5046,13 +5068,13 @@
         <v>170</v>
       </c>
       <c r="X41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y41" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Y41" s="1" t="s">
+      <c r="Z41" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AA41" s="1" t="s">
         <v>42</v>
@@ -5064,7 +5086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5105,13 +5127,13 @@
         <v>30</v>
       </c>
       <c r="N42" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>48</v>
@@ -5135,13 +5157,13 @@
         <v>38</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>85</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA42" s="1" t="s">
         <v>52</v>
@@ -5153,7 +5175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5194,13 +5216,13 @@
         <v>30</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>36</v>
@@ -5222,13 +5244,13 @@
         <v>37</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>92</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA43" s="1" t="s">
         <v>52</v>
@@ -5240,7 +5262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5281,10 +5303,10 @@
         <v>30</v>
       </c>
       <c r="N44" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>56</v>
@@ -5311,13 +5333,13 @@
         <v>38</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>130</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA44" s="1" t="s">
         <v>52</v>
@@ -5329,7 +5351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5370,13 +5392,13 @@
         <v>32</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>48</v>
@@ -5400,13 +5422,13 @@
         <v>38</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>92</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AA45" s="1" t="s">
         <v>68</v>
@@ -5418,7 +5440,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5459,13 +5481,13 @@
         <v>32</v>
       </c>
       <c r="N46" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="P46" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>36</v>
@@ -5489,13 +5511,13 @@
         <v>37</v>
       </c>
       <c r="X46" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y46" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y46" s="1" t="s">
+      <c r="Z46" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="Z46" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="AA46" s="1" t="s">
         <v>42</v>
@@ -5507,7 +5529,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5548,43 +5570,43 @@
         <v>32</v>
       </c>
       <c r="N47" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="Q47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X47" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X47" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>130</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA47" s="1" t="s">
         <v>106</v>
@@ -5596,7 +5618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5637,13 +5659,13 @@
         <v>32</v>
       </c>
       <c r="N48" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
@@ -5665,13 +5687,13 @@
         <v>36</v>
       </c>
       <c r="X48" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z48" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="Y48" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z48" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="AA48" s="1" t="s">
         <v>81</v>
@@ -5683,7 +5705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -5727,7 +5749,7 @@
         <v>94</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>141</v>
@@ -5754,16 +5776,16 @@
         <v>37</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AB49" s="1" t="s">
         <v>38</v>
@@ -5772,7 +5794,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -5813,10 +5835,10 @@
         <v>32</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>103</v>
@@ -5843,7 +5865,7 @@
         <v>38</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>73</v>
@@ -5852,7 +5874,7 @@
         <v>99</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AB50" s="1" t="s">
         <v>38</v>
@@ -5861,7 +5883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -5905,7 +5927,7 @@
         <v>117</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>209</v>
@@ -5932,7 +5954,7 @@
         <v>48</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>40</v>
@@ -5948,7 +5970,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -5992,10 +6014,10 @@
         <v>94</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>36</v>
@@ -6019,13 +6041,13 @@
         <v>37</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>130</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AA52" s="1" t="s">
         <v>42</v>
@@ -6037,7 +6059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -6081,34 +6103,34 @@
         <v>145</v>
       </c>
       <c r="O53" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X53" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>73</v>
@@ -6126,7 +6148,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -6170,10 +6192,10 @@
         <v>69</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>38</v>
@@ -6197,13 +6219,13 @@
         <v>38</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>130</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AA54" s="1" t="s">
         <v>42</v>
@@ -6215,7 +6237,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>48</v>
       </c>
@@ -6256,7 +6278,7 @@
         <v>32</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1" t="s">
@@ -6284,7 +6306,7 @@
         <v>48</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>85</v>

--- a/Open_Science_Survey_BN_cln.xlsx
+++ b/Open_Science_Survey_BN_cln.xlsx
@@ -1103,6 +1103,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AC55" totalsRowShown="0">
   <autoFilter ref="A1:AC55"/>
+  <sortState ref="A2:AC55">
+    <sortCondition ref="A1:A55"/>
+  </sortState>
   <tableColumns count="29">
     <tableColumn id="1" name="ID" dataDxfId="28"/>
     <tableColumn id="6" name="Position:" dataDxfId="27"/>
@@ -1437,7 +1440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5707,96 +5712,92 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>290</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="O49" s="1"/>
       <c r="P49" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z49" s="1" t="s">
-        <v>292</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>293</v>
+        <v>132</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>53</v>
@@ -5805,19 +5806,19 @@
         <v>30</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>31</v>
@@ -5829,49 +5830,49 @@
         <v>32</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="AA50" s="1" t="s">
         <v>293</v>
@@ -5885,31 +5886,31 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>32</v>
@@ -5924,44 +5925,46 @@
         <v>32</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>117</v>
+        <v>294</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>48</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z51" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="AA51" s="1" t="s">
-        <v>42</v>
+        <v>293</v>
       </c>
       <c r="AB51" s="1" t="s">
         <v>38</v>
@@ -5972,25 +5975,25 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>32</v>
@@ -6002,69 +6005,67 @@
         <v>32</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>48</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>301</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>30</v>
@@ -6076,67 +6077,67 @@
         <v>30</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>48</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>38</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c r="AA53" s="1" t="s">
         <v>42</v>
@@ -6145,72 +6146,72 @@
         <v>43</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>38</v>
@@ -6219,30 +6220,30 @@
         <v>38</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>308</v>
+        <v>195</v>
       </c>
       <c r="AA54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>32</v>
@@ -6251,13 +6252,13 @@
         <v>32</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>32</v>
@@ -6269,57 +6270,61 @@
         <v>31</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="O55" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="P55" s="1" t="s">
-        <v>180</v>
+        <v>306</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z55" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="AA55" s="1" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="AB55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC55" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="AC55" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
